--- a/biology/Botanique/Mammillaria_carnea/Mammillaria_carnea.xlsx
+++ b/biology/Botanique/Mammillaria_carnea/Mammillaria_carnea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria carnea est une espèce de cactus du genre Mammillaria endémique du Mexique dans les États de Guerrero, Puebla et d'Oaxaca.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cactus vivace charnu et globuleux croît en solitaire. Sphérique ou cylindrique, il peut atteindre vingt centimètres de hauteur environ et de huit à douze centimètres de diamètre. Ses aréoles forment des pyramides solides. Ses quatre épines centrales sont roses ou rose-brun avec une pointe noire. Elles sont rigides, droites ou courbes.
 Ses fleurs sont rose clair et mesurent de 1,5 à 2 cm de longueur et de 1,2 à 1,5 cm de diamètre. Ses fruits rouges contiennent des graines brunes.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse dans les zones désertiques arides.
 </t>
@@ -575,7 +591,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria villifera var. carneae (Zucc. ex Pfeiff.) Salm-Dyck (1850), Neomammillaria carnea (Zucc. ex Pfeiff.) Britton &amp; Rose (1923), Mammillaria aeruginosa Scheidw. (1840), Mammillaria villifera var. aeruginosa (Scheidw.) Salm-Dyck (1850), Mammillaria carnea var. aeruginosa (Scheidw.) Gürke (1905), Mammillaria subtetragona A.Dietr. (1840), Mammillaria carnea var. subtetragona (A.Dietr.) Backeb. (1961), Mammillaria pallescens Scheidw. (1841), Mammillaria villifera var. cirrosa Salm-Dyck (1850), Mammillaria carnea var. cirrosa (Salm-Dyck) Gürke (1905) et Mammillaria carnea var. robustispina R.T.Craig (1945).
 </t>
